--- a/src/main/resources/【KOL】抖音、快手询价单订单导出模板.xlsx
+++ b/src/main/resources/【KOL】抖音、快手询价单订单导出模板.xlsx
@@ -562,10 +562,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -620,51 +620,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,9 +648,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,8 +678,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,14 +696,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -734,8 +711,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,6 +733,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -757,14 +749,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,19 +810,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,181 +990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1130,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,30 +1146,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,6 +1176,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1210,6 +1195,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1231,10 +1231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,10 +1243,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,129 +1255,129 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,9 +1429,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,53 +1441,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1516,7 +1498,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1875,55 +1857,55 @@
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="2:11">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="52"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" ht="76.5" customHeight="1" spans="2:11">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="2:11">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="53"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="6" ht="16.5" spans="2:4">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1934,7 +1916,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="41" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1943,125 +1925,125 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" ht="16.5" spans="2:4">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" ht="16.5" spans="2:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" ht="16.5" spans="2:4">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:4">
-      <c r="B12" s="48"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" ht="16.5" spans="2:4">
-      <c r="B13" s="48"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" ht="16.5" spans="2:4">
-      <c r="B14" s="48"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" ht="16.5" spans="2:4">
-      <c r="B15" s="48"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" ht="16.5" spans="2:4">
-      <c r="B16" s="48"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" ht="16.5" spans="2:4">
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" ht="16.5" spans="2:4">
-      <c r="B18" s="48"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" ht="16.5" spans="2:4">
-      <c r="B19" s="48"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" ht="16.5" spans="2:4">
-      <c r="B20" s="48"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" ht="16.5" spans="2:4">
-      <c r="B21" s="48"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" ht="16.5" spans="2:4">
-      <c r="B22" s="48"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:4">
-      <c r="B23" s="48"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" ht="16.5" spans="2:4">
-      <c r="B24" s="49"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" ht="16.5" spans="2:4">
       <c r="B25" s="1" t="s">
@@ -2126,46 +2108,46 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:4">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:4">
-      <c r="B32" s="48"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="48"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" ht="16.5" spans="2:4">
-      <c r="B33" s="48"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" ht="16.5" spans="2:4">
-      <c r="B34" s="48"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" ht="16.5" spans="2:4">
-      <c r="B35" s="48"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" ht="16.5" spans="2:4">
-      <c r="B36" s="49"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2174,55 +2156,55 @@
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:4">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:4">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:4">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="2:4">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:4">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="45"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2249,10 +2231,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AA28"/>
+  <dimension ref="A2:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V11" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V3" workbookViewId="0">
+      <selection activeCell="X17" sqref="W13:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="16.5"/>
@@ -2412,16 +2394,16 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="25" t="s">
+      <c r="T10" s="21"/>
+      <c r="U10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="34"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="30"/>
     </row>
     <row r="11" ht="28.5" customHeight="1" spans="1:27">
       <c r="A11" s="13" t="s">
@@ -2451,52 +2433,52 @@
       <c r="I11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="U11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="28" t="s">
+      <c r="V11" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="28" t="s">
+      <c r="W11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="28" t="s">
+      <c r="X11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="Y11" s="28" t="s">
+      <c r="Y11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="Z11" s="15" t="s">
@@ -2537,279 +2519,134 @@
       <c r="J12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="U12" s="30" t="s">
+      <c r="U12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="V12" s="30" t="s">
+      <c r="V12" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="W12" s="30" t="s">
+      <c r="W12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="31" t="s">
+      <c r="X12" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="35" t="s">
+      <c r="Y12" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="Z12" s="31" t="s">
+      <c r="Z12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AA12" s="31" t="s">
+      <c r="AA12" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" ht="49" customHeight="1" spans="1:27">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+    <row r="13" ht="58" customHeight="1" spans="1:27">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="1:27">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" ht="49" customHeight="1" spans="1:27">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" ht="49" customHeight="1" spans="1:27">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" ht="49" customHeight="1" spans="1:27">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" ht="58" customHeight="1" spans="1:27">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="38" t="s">
+      <c r="Y13" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="40"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="44.55" customHeight="1" spans="1:20">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="22" spans="5:19">
-      <c r="E22" s="7" t="s">
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="44.55" customHeight="1" spans="1:20">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="17" spans="5:19">
+      <c r="E17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S17" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="5:24">
-      <c r="E25" s="7" t="s">
+    <row r="20" spans="5:24">
+      <c r="E20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="X25" s="8" t="s">
+      <c r="X20" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="24:24">
-      <c r="X28" s="8" t="s">
+    <row r="23" spans="24:24">
+      <c r="X23" s="8" t="s">
         <v>127</v>
       </c>
     </row>
